--- a/portfolioAss/data/sleepCoffeeProductivity.xlsx
+++ b/portfolioAss/data/sleepCoffeeProductivity.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3447DA-AD12-4892-A3E4-249786471CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83648A-9D76-4FB9-98C8-CDB4D3CF89F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -308,23 +310,15 @@
   </si>
   <si>
     <t>Data Index</t>
-  </si>
-  <si>
-    <t>meta analysis</t>
-  </si>
-  <si>
-    <t>Average Wakeup Time</t>
-  </si>
-  <si>
-    <t>Median Wakeup Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14409]h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -439,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -503,6 +497,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1689,23 +1693,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E12E0F-8BB8-46E9-B06C-775E1AF39343}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" customWidth="1"/>
     <col min="12" max="12" width="38.6640625" customWidth="1"/>
@@ -1764,7 +1768,7 @@
       <c r="D2" s="20">
         <v>0.28125</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="43">
         <v>1.3</v>
       </c>
       <c r="F2" s="33">
@@ -1805,14 +1809,14 @@
       <c r="D3" s="20">
         <v>0.31111111111111112</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="43">
         <v>1.45</v>
       </c>
       <c r="F3" s="33">
         <v>0</v>
       </c>
       <c r="G3" s="34">
-        <f t="shared" ref="G3:G30" si="0">E3 +F3</f>
+        <f t="shared" ref="G3:G28" si="0">E3 +F3</f>
         <v>1.45</v>
       </c>
       <c r="H3" s="20">
@@ -1847,7 +1851,7 @@
       <c r="D4" s="20">
         <v>0.2722222222222222</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="43">
         <v>1.1499999999999999</v>
       </c>
       <c r="F4" s="33">
@@ -1888,7 +1892,7 @@
       <c r="D5" s="18">
         <v>0.35138888888888892</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="44">
         <v>0</v>
       </c>
       <c r="F5" s="31">
@@ -1929,7 +1933,7 @@
       <c r="D6" s="18">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="44">
         <v>1.3</v>
       </c>
       <c r="F6" s="31">
@@ -1969,7 +1973,7 @@
       <c r="D7" s="18">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F7" s="31">
@@ -2011,7 +2015,7 @@
       <c r="D8" s="18">
         <v>0.27430555555555552</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="44">
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="31">
@@ -2051,7 +2055,7 @@
       <c r="D9" s="18">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="44">
         <v>2.2999999999999998</v>
       </c>
       <c r="F9" s="31">
@@ -2065,7 +2069,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="I9" s="16">
-        <f>D9-H8</f>
+        <f t="shared" ref="I9:I17" si="1">D9-H8</f>
         <v>0.35069444444444442</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -2093,7 +2097,7 @@
       <c r="D10" s="18">
         <v>0.36249999999999999</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="44">
         <v>1.3</v>
       </c>
       <c r="F10" s="31">
@@ -2106,7 +2110,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="I10" s="16">
-        <f>D10-H9</f>
+        <f t="shared" si="1"/>
         <v>0.33124999999999999</v>
       </c>
       <c r="J10" s="28">
@@ -2134,7 +2138,7 @@
       <c r="D11" s="18">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="44" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="31">
@@ -2147,7 +2151,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="I11" s="16">
-        <f>D11-H10</f>
+        <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -2175,7 +2179,7 @@
       <c r="D12" s="18">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="44" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="31">
@@ -2188,7 +2192,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="I12" s="16">
-        <f>D12-H11</f>
+        <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
       <c r="J12" s="28">
@@ -2216,7 +2220,7 @@
       <c r="D13" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="44" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="31">
@@ -2229,7 +2233,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="I13" s="16">
-        <f>D13-H12</f>
+        <f t="shared" si="1"/>
         <v>0.3611111111111111</v>
       </c>
       <c r="J13" s="14" t="s">
@@ -2257,7 +2261,7 @@
       <c r="D14" s="18">
         <v>0.4069444444444445</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="44" t="s">
         <v>63</v>
       </c>
       <c r="F14" s="31">
@@ -2270,7 +2274,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="I14" s="16">
-        <f>D14-H13</f>
+        <f t="shared" si="1"/>
         <v>0.35486111111111118</v>
       </c>
       <c r="J14" s="15" t="s">
@@ -2298,7 +2302,7 @@
       <c r="D15" s="23">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="45" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="32">
@@ -2311,7 +2315,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="I15" s="4">
-        <f>D15-H14</f>
+        <f t="shared" si="1"/>
         <v>0.32986111111111116</v>
       </c>
       <c r="J15" s="29">
@@ -2339,7 +2343,7 @@
       <c r="D16" s="18">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="44" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="31">
@@ -2353,7 +2357,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="I16" s="16">
-        <f>D16-H15</f>
+        <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
       <c r="J16" s="28">
@@ -2381,7 +2385,7 @@
       <c r="D17" s="18">
         <v>0.40138888888888885</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="44" t="s">
         <v>70</v>
       </c>
       <c r="F17" s="31">
@@ -2394,7 +2398,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I17" s="16">
-        <f>D17-H16</f>
+        <f t="shared" si="1"/>
         <v>0.39305555555555549</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -2422,7 +2426,7 @@
       <c r="D18" s="18">
         <v>0.40833333333333338</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="44" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="31">
@@ -2462,7 +2466,7 @@
       <c r="D19" s="18">
         <v>0.30972222222222223</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="44" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="31">
@@ -2504,7 +2508,7 @@
       <c r="D20" s="18">
         <v>0.36249999999999999</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="44">
         <v>0.45</v>
       </c>
       <c r="F20" s="31">
@@ -2545,7 +2549,7 @@
       <c r="D21" s="20">
         <v>0.32083333333333336</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="43">
         <v>1.45</v>
       </c>
       <c r="F21" s="33">
@@ -2586,7 +2590,7 @@
       <c r="D22" s="20">
         <v>0.3</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="43">
         <v>1.2</v>
       </c>
       <c r="F22" s="33">
@@ -2627,15 +2631,15 @@
       <c r="D23" s="20">
         <v>0.31597222222222221</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>66</v>
+      <c r="E23" s="43">
+        <v>2</v>
       </c>
       <c r="F23" s="33">
         <v>2.2999999999999998</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="H23" s="20">
         <v>3.125E-2</v>
@@ -2669,15 +2673,15 @@
       <c r="D24" s="20">
         <v>0.34861111111111115</v>
       </c>
-      <c r="E24" s="33">
-        <v>2</v>
+      <c r="E24" s="43">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F24" s="33">
         <v>2</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H24" s="20">
         <v>1.5277777777777777E-2</v>
@@ -2711,7 +2715,7 @@
       <c r="D25" s="20">
         <v>0.34583333333333338</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="43">
         <v>2.15</v>
       </c>
       <c r="F25" s="33">
@@ -2751,15 +2755,15 @@
       <c r="D26" s="20">
         <v>0.30277777777777776</v>
       </c>
-      <c r="E26" s="33">
-        <v>1.1499999999999999</v>
+      <c r="E26" s="43">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F26" s="33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G26" s="34">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f>E26 +F26</f>
+        <v>3.5</v>
       </c>
       <c r="H26" s="20">
         <v>2.0833333333333332E-2</v>
@@ -2792,7 +2796,7 @@
       <c r="D27" s="20">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="43">
         <v>0</v>
       </c>
       <c r="F27" s="33">
@@ -2833,7 +2837,7 @@
       <c r="D28" s="20">
         <v>0.36944444444444446</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="43">
         <v>1.3</v>
       </c>
       <c r="F28" s="33">
@@ -2847,7 +2851,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>7.32</v>
+        <v>7.42</v>
       </c>
       <c r="J28" s="26">
         <v>0.43194444444444446</v>
@@ -2872,19 +2876,19 @@
         <v>12</v>
       </c>
       <c r="D29" s="20">
-        <v>0.87777777777777777</v>
-      </c>
-      <c r="E29" s="33">
-        <v>1.3</v>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="E29" s="43">
+        <v>3</v>
       </c>
       <c r="F29" s="33">
         <v>1.45</v>
       </c>
       <c r="G29" s="34">
-        <v>3.15</v>
+        <v>4.45</v>
       </c>
       <c r="H29" s="20">
-        <v>0.53333333333333333</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I29" s="1">
         <v>7.39</v>
@@ -2912,10 +2916,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="20">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="E30" s="33">
-        <v>0.2</v>
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E30" s="43">
+        <v>1.3</v>
       </c>
       <c r="F30" s="33">
         <v>2.5</v>
@@ -2952,81 +2956,214 @@
         <v>5</v>
       </c>
       <c r="D31" s="20">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="E31" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="F31" s="43">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0.9375</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6.32</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19">
+        <v>43595</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="E32" s="43">
+        <v>2</v>
+      </c>
+      <c r="F32" s="43">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="H32" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9.17</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19">
+        <v>43596</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="20">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="E33" s="43">
+        <v>1.45</v>
+      </c>
+      <c r="F33" s="43">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0.90625</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19">
+        <v>43597</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E34" s="43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F34" s="43">
+        <v>2.15</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H34" s="20">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>11.3</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19">
+        <v>43598</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E35" s="43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F35" s="43">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H35" s="20">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19">
+        <v>43599</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E36" s="43">
+        <v>3.1</v>
+      </c>
+      <c r="F36" s="43"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J10">
@@ -3037,4 +3174,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F2A28E-ABB3-4632-96A4-250ABFB11411}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514AE2E-E8D5-447E-96CF-BE0030A23DA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/portfolioAss/data/sleepCoffeeProductivity.xlsx
+++ b/portfolioAss/data/sleepCoffeeProductivity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83648A-9D76-4FB9-98C8-CDB4D3CF89F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972C02C1-D694-42C6-9142-03FA8B9ECB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>Data Index</t>
+  </si>
+  <si>
+    <t>8:48 AM, 4:30 PM</t>
+  </si>
+  <si>
+    <t>9:38 AM, 4:11 PM, 8:52 PM</t>
+  </si>
+  <si>
+    <t>8:45:00 PM , 3:45:00 PM</t>
   </si>
 </sst>
 </file>
@@ -460,7 +469,6 @@
     <xf numFmtId="19" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -506,7 +514,12 @@
     <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1696,7 +1709,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,8 +1765,8 @@
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1768,13 +1781,13 @@
       <c r="D2" s="20">
         <v>0.28125</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <v>1.3</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <v>1</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <f>E2 +F2</f>
         <v>2.2999999999999998</v>
       </c>
@@ -1784,7 +1797,7 @@
       <c r="I2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="26">
         <v>0.3576388888888889</v>
       </c>
       <c r="K2" s="1">
@@ -1793,8 +1806,8 @@
       <c r="L2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1809,13 +1822,13 @@
       <c r="D3" s="20">
         <v>0.31111111111111112</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>1.45</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>0</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <f t="shared" ref="G3:G28" si="0">E3 +F3</f>
         <v>1.45</v>
       </c>
@@ -1826,7 +1839,7 @@
         <f>D3-H2</f>
         <v>0.29722222222222222</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="26">
         <v>0.36944444444444446</v>
       </c>
       <c r="K3" s="1">
@@ -1835,8 +1848,8 @@
       <c r="L3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1851,13 +1864,13 @@
       <c r="D4" s="20">
         <v>0.2722222222222222</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>0</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
@@ -1876,8 +1889,8 @@
       <c r="L4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
@@ -1892,13 +1905,13 @@
       <c r="D5" s="18">
         <v>0.35138888888888892</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>0</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1908,7 +1921,7 @@
       <c r="I5" s="16">
         <v>0.36874999999999997</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="27" t="s">
         <v>75</v>
       </c>
       <c r="K5" s="14">
@@ -1917,8 +1930,8 @@
       <c r="L5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
@@ -1933,13 +1946,13 @@
       <c r="D6" s="18">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>1.3</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>0.45</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>2.15</v>
       </c>
       <c r="H6" s="18">
@@ -1948,7 +1961,7 @@
       <c r="I6" s="16">
         <v>0.38194444444444442</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="27" t="s">
         <v>73</v>
       </c>
       <c r="K6" s="14">
@@ -1957,8 +1970,8 @@
       <c r="L6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
@@ -1973,13 +1986,13 @@
       <c r="D7" s="18">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>0</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
@@ -1990,7 +2003,7 @@
         <f>D7-H6</f>
         <v>0.35069444444444448</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>0.57291666666666663</v>
       </c>
       <c r="K7" s="14">
@@ -1999,8 +2012,8 @@
       <c r="L7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
@@ -2015,13 +2028,13 @@
       <c r="D8" s="18">
         <v>0.27430555555555552</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>2.15</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>3.25</v>
       </c>
       <c r="H8" s="18">
@@ -2030,7 +2043,7 @@
       <c r="I8" s="16">
         <v>0.30208333333333331</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="K8" s="14">
@@ -2039,8 +2052,8 @@
       <c r="L8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
@@ -2055,13 +2068,13 @@
       <c r="D9" s="18">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>3</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
@@ -2072,7 +2085,7 @@
         <f t="shared" ref="I9:I17" si="1">D9-H8</f>
         <v>0.35069444444444442</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="27" t="s">
         <v>77</v>
       </c>
       <c r="K9" s="14">
@@ -2081,8 +2094,8 @@
       <c r="L9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
@@ -2097,13 +2110,13 @@
       <c r="D10" s="18">
         <v>0.36249999999999999</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>1.3</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>1.3</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>3</v>
       </c>
       <c r="H10" s="18">
@@ -2113,7 +2126,7 @@
         <f t="shared" si="1"/>
         <v>0.33124999999999999</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <v>0.44444444444444442</v>
       </c>
       <c r="K10" s="14">
@@ -2122,8 +2135,8 @@
       <c r="L10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
@@ -2138,13 +2151,13 @@
       <c r="D11" s="18">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>3.3</v>
       </c>
       <c r="H11" s="18">
@@ -2154,7 +2167,7 @@
         <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="46" t="s">
         <v>73</v>
       </c>
       <c r="K11" s="14">
@@ -2163,8 +2176,8 @@
       <c r="L11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
@@ -2179,13 +2192,13 @@
       <c r="D12" s="18">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>2</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="34">
         <v>3.45</v>
       </c>
       <c r="H12" s="18">
@@ -2195,7 +2208,7 @@
         <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>0.67708333333333337</v>
       </c>
       <c r="K12" s="14">
@@ -2204,8 +2217,8 @@
       <c r="L12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -2220,13 +2233,13 @@
       <c r="D13" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>3</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>5</v>
       </c>
       <c r="H13" s="18">
@@ -2236,7 +2249,7 @@
         <f t="shared" si="1"/>
         <v>0.3611111111111111</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="46" t="s">
         <v>78</v>
       </c>
       <c r="K13" s="14">
@@ -2245,8 +2258,8 @@
       <c r="L13" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
@@ -2261,13 +2274,13 @@
       <c r="D14" s="18">
         <v>0.4069444444444445</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>4.1500000000000004</v>
       </c>
       <c r="H14" s="18">
@@ -2277,7 +2290,7 @@
         <f t="shared" si="1"/>
         <v>0.35486111111111118</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="27" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="14">
@@ -2286,8 +2299,8 @@
       <c r="L14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -2302,13 +2315,13 @@
       <c r="D15" s="23">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>3.4</v>
       </c>
       <c r="H15" s="23">
@@ -2318,7 +2331,7 @@
         <f t="shared" si="1"/>
         <v>0.32986111111111116</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="28">
         <v>0.44791666666666669</v>
       </c>
       <c r="K15" s="24">
@@ -2327,8 +2340,8 @@
       <c r="L15" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
@@ -2343,13 +2356,13 @@
       <c r="D16" s="18">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <v>0</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2360,7 +2373,7 @@
         <f t="shared" si="1"/>
         <v>0.35069444444444442</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="27">
         <v>0.39930555555555558</v>
       </c>
       <c r="K16" s="14">
@@ -2369,8 +2382,8 @@
       <c r="L16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
@@ -2385,13 +2398,13 @@
       <c r="D17" s="18">
         <v>0.40138888888888885</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="30">
         <v>0</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>0.2</v>
       </c>
       <c r="H17" s="18">
@@ -2401,7 +2414,7 @@
         <f t="shared" si="1"/>
         <v>0.39305555555555549</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="46" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="14">
@@ -2410,8 +2423,8 @@
       <c r="L17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
@@ -2426,13 +2439,13 @@
       <c r="D18" s="18">
         <v>0.40833333333333338</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>1.35</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>2.0499999999999998</v>
       </c>
       <c r="H18" s="18">
@@ -2441,7 +2454,7 @@
       <c r="I18" s="16">
         <v>0.3666666666666667</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <v>0.45277777777777778</v>
       </c>
       <c r="K18" s="14">
@@ -2450,8 +2463,8 @@
       <c r="L18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
@@ -2466,13 +2479,13 @@
       <c r="D19" s="18">
         <v>0.30972222222222223</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>0</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2483,7 +2496,7 @@
         <f>D19-H18</f>
         <v>0.28541666666666665</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <v>0.34375</v>
       </c>
       <c r="K19" s="14">
@@ -2492,8 +2505,8 @@
       <c r="L19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
@@ -2508,13 +2521,13 @@
       <c r="D20" s="18">
         <v>0.36249999999999999</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <v>0.45</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>1.3</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <v>2.15</v>
       </c>
       <c r="H20" s="18">
@@ -2524,7 +2537,7 @@
         <f>D20-H19</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="46" t="s">
         <v>73</v>
       </c>
       <c r="K20" s="14">
@@ -2533,8 +2546,8 @@
       <c r="L20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2549,13 +2562,13 @@
       <c r="D21" s="20">
         <v>0.32083333333333336</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="42">
         <v>1.45</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="32">
         <v>2</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
@@ -2565,7 +2578,7 @@
       <c r="I21" s="25">
         <v>0.3444444444444445</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>0.4201388888888889</v>
       </c>
       <c r="K21" s="1">
@@ -2574,8 +2587,8 @@
       <c r="L21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2590,13 +2603,13 @@
       <c r="D22" s="20">
         <v>0.3</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="42">
         <v>1.2</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="32">
         <v>2.15</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <f t="shared" si="0"/>
         <v>3.3499999999999996</v>
       </c>
@@ -2606,7 +2619,7 @@
       <c r="I22" s="25">
         <v>0.37777777777777777</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>0.42708333333333331</v>
       </c>
       <c r="K22" s="1">
@@ -2615,8 +2628,8 @@
       <c r="L22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2631,13 +2644,13 @@
       <c r="D23" s="20">
         <v>0.31597222222222221</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="42">
         <v>2</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
@@ -2648,7 +2661,7 @@
         <f>D23-H22</f>
         <v>0.30069444444444443</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>73</v>
       </c>
       <c r="K23" s="1">
@@ -2657,8 +2670,8 @@
       <c r="L23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -2673,13 +2686,13 @@
       <c r="D24" s="20">
         <v>0.34861111111111115</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <v>2</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
@@ -2690,7 +2703,7 @@
         <f>D24 - H23</f>
         <v>0.31736111111111115</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="26">
         <v>0.69305555555555554</v>
       </c>
       <c r="K24" s="1">
@@ -2699,8 +2712,8 @@
       <c r="L24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2715,22 +2728,22 @@
       <c r="D25" s="20">
         <v>0.34583333333333338</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="42">
         <v>2.15</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <v>0.45</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <v>3</v>
       </c>
       <c r="H25" s="20">
         <v>0.9375</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <v>7.56</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="29" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="1">
@@ -2739,8 +2752,8 @@
       <c r="L25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="41"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2755,13 +2768,13 @@
       <c r="D26" s="20">
         <v>0.30277777777777776</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="32">
         <v>1.2</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="33">
         <f>E26 +F26</f>
         <v>3.5</v>
       </c>
@@ -2771,7 +2784,7 @@
       <c r="I26" s="1">
         <v>8.4600000000000009</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>0.36388888888888887</v>
       </c>
       <c r="K26" s="1">
@@ -2780,8 +2793,8 @@
       <c r="L26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -2796,13 +2809,13 @@
       <c r="D27" s="20">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="42">
         <v>0</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="32">
         <v>1.45</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
@@ -2812,7 +2825,7 @@
       <c r="I27" s="25">
         <v>0.34375</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="29" t="s">
         <v>73</v>
       </c>
       <c r="K27" s="1">
@@ -2821,8 +2834,8 @@
       <c r="L27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="41"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2837,13 +2850,13 @@
       <c r="D28" s="20">
         <v>0.36944444444444446</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="42">
         <v>1.3</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <v>2.15</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
@@ -2853,7 +2866,7 @@
       <c r="I28" s="1">
         <v>7.42</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="45">
         <v>0.43194444444444446</v>
       </c>
       <c r="K28" s="1">
@@ -2862,8 +2875,8 @@
       <c r="L28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -2878,13 +2891,13 @@
       <c r="D29" s="20">
         <v>0.37777777777777777</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="42">
         <v>3</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="32">
         <v>1.45</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <v>4.45</v>
       </c>
       <c r="H29" s="20">
@@ -2893,7 +2906,7 @@
       <c r="I29" s="1">
         <v>7.39</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="29" t="s">
         <v>73</v>
       </c>
       <c r="K29" s="1">
@@ -2902,8 +2915,8 @@
       <c r="L29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2918,13 +2931,13 @@
       <c r="D30" s="20">
         <v>0.3576388888888889</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <v>1.3</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="32">
         <v>2.5</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="33">
         <v>3.1</v>
       </c>
       <c r="H30" s="20">
@@ -2933,7 +2946,7 @@
       <c r="I30" s="1">
         <v>7.47</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="29" t="s">
         <v>91</v>
       </c>
       <c r="K30" s="1">
@@ -2958,10 +2971,10 @@
       <c r="D31" s="20">
         <v>0.32777777777777778</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="42">
         <v>1.45</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <v>2</v>
       </c>
       <c r="G31" s="1">
@@ -2973,9 +2986,11 @@
       <c r="I31" s="1">
         <v>6.32</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>42</v>
@@ -2996,10 +3011,10 @@
       <c r="D32" s="20">
         <v>0.3659722222222222</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="42">
         <v>2</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="42">
         <v>0</v>
       </c>
       <c r="G32" s="1">
@@ -3011,7 +3026,9 @@
       <c r="I32" s="1">
         <v>9.17</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="K32" s="1">
         <v>0</v>
       </c>
@@ -3034,10 +3051,10 @@
       <c r="D33" s="20">
         <v>0.36944444444444446</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="42">
         <v>1.45</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="42">
         <v>2</v>
       </c>
       <c r="G33" s="1">
@@ -3049,7 +3066,9 @@
       <c r="I33" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="26">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="K33" s="1">
         <v>1</v>
       </c>
@@ -3072,10 +3091,10 @@
       <c r="D34" s="20">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <v>2.15</v>
       </c>
       <c r="G34" s="1">
@@ -3087,7 +3106,9 @@
       <c r="I34" s="1">
         <v>11.3</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
@@ -3110,10 +3131,10 @@
       <c r="D35" s="20">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <v>2</v>
       </c>
       <c r="G35" s="1">
@@ -3125,7 +3146,9 @@
       <c r="I35" s="1">
         <v>7.15</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="K35" s="1">
         <v>3</v>
       </c>
@@ -3144,26 +3167,108 @@
         <v>12</v>
       </c>
       <c r="D36" s="20">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E36" s="43">
-        <v>3.1</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+        <v>0.34375</v>
+      </c>
+      <c r="E36" s="42">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F36" s="42">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="H36" s="20">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
       <c r="L36" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19">
+        <v>43600</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E37" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="F37" s="42">
+        <v>1.45</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="19">
+        <v>43601</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="E38" s="42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F38" s="42">
+        <v>1.3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+      <c r="H38" s="20">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J10">
